--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813668.474253395</v>
+        <v>811149.8058389163</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673451</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.78744869284727</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>41.24068147581188</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1776514406544</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.66515472866132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>223.3922079480025</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>161.9726758866856</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.06273604188423</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>78.862615527507</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>213.4331505673748</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>118.3069478219491</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>66.39905114063809</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953547212</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.100452100949</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1582,7 +1582,7 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>32.36266783103191</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754665</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1822,10 +1822,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>202.0141675149277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833741</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756246</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>22.65115569188822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833471</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238314</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.20606459030805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>41.02686156550116</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819392</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833836</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1343012721633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>137.3021949834105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>248.1322108373771</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756232</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.346298904865</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182522</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>790.7764984014356</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6537434744309</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y4" t="n">
-        <v>802.3657083949751</v>
+        <v>349.6600800990973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.991392838317</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>343.2691306290869</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2398.73056487825</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2398.73056487825</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2398.73056487825</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2398.73056487825</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2398.73056487825</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y5" t="n">
-        <v>2008.591232902438</v>
+        <v>1112.520734025445</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.4942917788359</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>214.558108850929</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>64.44146943859323</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>64.44146943859323</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
         <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070929</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>565.1427566090756</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1427566090756</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219474</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279063</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672312</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>746.116007074068</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>335.1301022844604</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>324.098056169861</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259408</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283596</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1807.792580591575</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1807.792580591575</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1807.792580591575</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1553.108092385688</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1553.108092385688</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1325.11854148767</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2007.689769729359</v>
+        <v>1535.258832689345</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1166.296315748933</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>808.030617142183</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>804.8267575931455</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5110662246918</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882239</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.55331123459</v>
+        <v>3826.588132455655</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.75120075037</v>
+        <v>3622.786021971435</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382978</v>
+        <v>3369.295305604043</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039407</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769293</v>
+        <v>2685.463762990358</v>
       </c>
       <c r="X11" t="n">
-        <v>2784.428941769293</v>
+        <v>2311.998004729278</v>
       </c>
       <c r="Y11" t="n">
-        <v>2394.289609793481</v>
+        <v>1921.858672753467</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246918</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>78.5110662246918</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843894</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>977.3905023848095</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.2557522378952</v>
+        <v>203.8650582458523</v>
       </c>
       <c r="C13" t="n">
-        <v>688.2557522378952</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="D13" t="n">
-        <v>538.1391128255596</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2260192431663</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431662</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920201</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1634.798454454512</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1380.113966248626</v>
+        <v>1123.7128231546</v>
       </c>
       <c r="W13" t="n">
-        <v>1090.696796211665</v>
+        <v>834.2956531176394</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.696796211665</v>
+        <v>606.3061022196221</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.9042170681349</v>
+        <v>385.5135230760919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,25 +5276,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060311</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733492</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733492</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254767</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
         <v>2286.888151551083</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057106</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933748</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109817</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608053</v>
@@ -5434,34 +5434,34 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861977</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
         <v>1957.667456821981</v>
@@ -5470,16 +5470,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1668.591243136708</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1464.536528475165</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1236.546977577148</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1015.754398433617</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121609</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.800778399825</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.485273605118</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2206.395003844405</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998287</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998287</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998287</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,22 +6230,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>417.9651836029414</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>913.2907898187001</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583879</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851662</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>558.019349243338</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310022</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.356899915406</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297718</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297718</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.7543264856224</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856224</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>550.6376870732868</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.60209139437</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.18492135741</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.195370459392</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.4027913158621</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7634,37 +7634,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257307</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310019</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73.66059580999757</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>298.8738406303694</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187145</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767885</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>253.8371316630825</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372911</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.0613636353762</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>84.50883082166331</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823176</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516637</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>144.5956654067396</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823446</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409392964</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462257</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.3785887617871</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>29.94462611521729</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.005432486450871</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>911432.9041099774</v>
+        <v>911432.9041099768</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>991821.9357667607</v>
+        <v>991821.9357667606</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997293.8001304305</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997293.8001304305</v>
+        <v>997293.80013043</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26320,16 +26320,16 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.4379713447</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372533</v>
@@ -26338,22 +26338,22 @@
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372531</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372531</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185157</v>
+        <v>143114.1392185144</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.347105138</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557946</v>
+        <v>11167.23623557863</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115324</v>
+        <v>37377.32855115304</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584892</v>
+        <v>43782.40655848961</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9238.079399450547</v>
@@ -26439,22 +26439,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756583</v>
-      </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913368.9005291181</v>
+        <v>-913368.9005291183</v>
       </c>
       <c r="C6" t="n">
-        <v>201382.8830468015</v>
+        <v>201382.8830468016</v>
       </c>
       <c r="D6" t="n">
-        <v>41961.61304890968</v>
+        <v>41961.61304890986</v>
       </c>
       <c r="E6" t="n">
-        <v>148508.4971912316</v>
+        <v>148298.532947388</v>
       </c>
       <c r="F6" t="n">
-        <v>145412.7367554585</v>
+        <v>145366.8317598914</v>
       </c>
       <c r="G6" t="n">
-        <v>302124.9984210101</v>
+        <v>302090.2604955752</v>
       </c>
       <c r="H6" t="n">
-        <v>313292.2346565896</v>
+        <v>313257.4967311537</v>
       </c>
       <c r="I6" t="n">
-        <v>313292.2346565896</v>
+        <v>313257.4967311537</v>
       </c>
       <c r="J6" t="n">
-        <v>145687.0568466071</v>
+        <v>145652.3189211711</v>
       </c>
       <c r="K6" t="n">
-        <v>313292.2346565894</v>
+        <v>313257.4967311539</v>
       </c>
       <c r="L6" t="n">
-        <v>264998.2646483987</v>
+        <v>264963.526722963</v>
       </c>
       <c r="M6" t="n">
-        <v>275914.9061054362</v>
+        <v>275880.1681800007</v>
       </c>
       <c r="N6" t="n">
-        <v>269509.8280981004</v>
+        <v>269475.0901726643</v>
       </c>
       <c r="O6" t="n">
-        <v>310268.9366793647</v>
+        <v>310234.1987539293</v>
       </c>
       <c r="P6" t="n">
-        <v>313292.2346565895</v>
+        <v>313257.4967311537</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,22 +26790,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086474</v>
+        <v>981.3883278086464</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012576</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063538</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.986872406354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063538</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.9463929706333</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>328.4904192026572</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31.65432874128291</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.9194986234335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>188.1554948249515</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.68550909354821</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>132.358311981047</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.275027796321</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>81.17461381994565</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>71.46207750949281</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-3.452939267845067e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.398696565172219e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.256356658357846e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,34 +31276,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310839</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>219.8517740430798</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>150.4305144013752</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760381</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>210.3948924365571</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279227</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>295.974394015948</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>312.3207226334981</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33503,19 +33503,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>626.4629682828348</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.1165249313368</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
-        <v>451.9270028924504</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>536.3866168795495</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>602.2300008170298</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063683</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512097</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>77.71774012106147</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.58907542701622</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>101.8925903961639</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>68.26085851453884</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059044</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>161.9999866016177</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>174.4792836591391</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>207.1227774066596</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>483.8667238383904</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
-        <v>320.5852908091172</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>405.0449047962162</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
